--- a/enfsolar/src/test/resources/Installers.xlsx
+++ b/enfsolar/src/test/resources/Installers.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\automation\enfsolar\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CBE58995-9241-4538-AE2E-4BFA22A7EDEE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A7F2816-C4B4-4BEF-87B6-3049BED88EE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="10686" xr2:uid="{6CFDC5CE-D575-4D98-B950-AC93C675932D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Italy" sheetId="1" r:id="rId1"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
